--- a/user_data.xlsx
+++ b/user_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,12 +441,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>gender</t>
+          <t>mobile_number</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>city</t>
+          <t>email</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -458,20 +458,158 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>janaesh</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
+          <t>janaeshwar</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>9944400288</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>coimbatore</t>
+          <t>jan@email.com</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
+        <is>
+          <t>developer</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>hari</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>8888888</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>hari@gmail.com</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>student</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sumathi</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>555555</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>sumathi@gmail.com</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>doctor</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>babu</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>99999999</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>babu@gmail.com</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>electrician</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>krishna</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>4444444</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>krish@gmail.com</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>plumber</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>anandhi</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>88888888</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>anandhi@gmail.com</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>teacher</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>baba</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>baba@gmail.com</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>student</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>madhan</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>5512345</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>madhan@gmail.com</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>developer</t>
         </is>
